--- a/biology/Botanique/Sauropus_androgynus/Sauropus_androgynus.xlsx
+++ b/biology/Botanique/Sauropus_androgynus/Sauropus_androgynus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauropus androgynus est une espèce de plantes à fleurs de la famille des Phyllanthaceae. C'est un arbuste cultivé dans certaines régions tropicales comme légume-feuille.
 Sauropus androgynus ne doit pas être confondu avec Phyllanthus acidus avec qui il partage certains de ses noms vernaculaires (ex : star gooseberry).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauropus androgynus est originaire du sud de l'Inde, du Sri Lanka et d'Asie du Sud-Est (Indonésie, Malaisie, Laos, Vietnam, Thaïlande, Taïwan, Sud de la Chine). Il a été introduit ponctuellement dans d'autres régions tropicale pour sa culture.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses multiples tiges érigées peuvent atteindre 2,5 mètres de haut et portent des feuilles ovales vert foncé longues de 5-6 centimètres.
-Cette espèce, commune dans les forêts sempervirentes, est cultivée jusqu'à 1 300 mètres d'altitude[3].
+Cette espèce, commune dans les forêts sempervirentes, est cultivée jusqu'à 1 300 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Pathogènes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauropus androgynus est un hôte majeur pour la mouche des fruits orientale Bactrocera dorsalis, mais aussi accessoirement pour les mouches blanches Aleurodicus dispersus et Bemisia euphorbiae, l'Enroulement chlorotique du trèfle Candidatus Phytoplasma trifolii et le virus New Delhi des feuilles enroulées de la tomate[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauropus androgynus est un hôte majeur pour la mouche des fruits orientale Bactrocera dorsalis, mais aussi accessoirement pour les mouches blanches Aleurodicus dispersus et Bemisia euphorbiae, l'Enroulement chlorotique du trèfle Candidatus Phytoplasma trifolii et le virus New Delhi des feuilles enroulées de la tomate.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauropus androgynus tient une place importante dans les cultures asiatiques, aussi a-t-il de nombreux noms vernaculaires parmi les langues parlées dans la région :
 Monde anglophone - Star gooseberry, sweet-leaf bush, sweet-leaf sauropus, sweet shoot, Chinese malunggay, Japanese Malungay, multivitamin green, multivitamin plant
@@ -643,7 +663,7 @@
 Kannada (Karnataka) - 'Chakrani beru, Chinese soppu
 Lepcha (Sikkim) - Sengtungrung
 Malayalam (Kerala) - Malay cheera, madhura cheera, elacheera (tribu Muthuvan du district d'Idukki)
-Tamil (Tamil Nadu) - Thavasai murungai (thavasimurungai)[5],[6],[7]
+Tamil (Tamil Nadu) - Thavasai murungai (thavasimurungai)
 </t>
         </is>
       </c>
@@ -672,17 +692,16 @@
           <t>Utilisations culinaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feuilles, fruits immatures, et fleurs sont consommés cuits comme légume-feuille[8],[9].
-Il s'agit d'un des légumes-feuilles les plus populaires d'Asie du Sud et du Sud-Est. Il est connu pour son bon rendement et sa palatabilité[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feuilles, fruits immatures, et fleurs sont consommés cuits comme légume-feuille,.
+Il s'agit d'un des légumes-feuilles les plus populaires d'Asie du Sud et du Sud-Est. Il est connu pour son bon rendement et sa palatabilité.
 Ses jeunes tiges ont été vendues comme « asperges tropicales. » 
 Au Vietnam, on le cuisine en soupes, mélangé avec de la chair de crabe, du porc émincé ou des crevettes séchées. 
 En Malaisie, il est communément poêlé avec des œufs ou des anchois séchés. 
 On consomme aussi ses fleurs et ses petits fruits violacés.
-Nutrition
-Les feuilles de Sauropus androgynus sont particulièrement riches en vitamine E : une étude portant sur 62 plantes tropicales comestibles rapporte que la teneur la plus élevée en α-tocophérol avait été mesurée dans les feuilles de Sauropus androgynus (426,8 mg / kg de portion comestible)[14].
-Sauropus androgynus présente aussi un fort taux de provitamine A, de caroténoïdes, en particulier dans les feuilles fraîchement cueillies, ainsi que des niveaux élevés de vitamines B et C, de polyphénols (tannins), de protéines et de minéraux. Plus les feuilles sont matures, plus la teneur en éléments nutritifs est élevée[15],[7].
 </t>
         </is>
       </c>
@@ -708,17 +727,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations culinaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les feuilles de Sauropus androgynus sont particulièrement riches en vitamine E : une étude portant sur 62 plantes tropicales comestibles rapporte que la teneur la plus élevée en α-tocophérol avait été mesurée dans les feuilles de Sauropus androgynus (426,8 mg / kg de portion comestible).
+Sauropus androgynus présente aussi un fort taux de provitamine A, de caroténoïdes, en particulier dans les feuilles fraîchement cueillies, ainsi que des niveaux élevés de vitamines B et C, de polyphénols (tannins), de protéines et de minéraux. Plus les feuilles sont matures, plus la teneur en éléments nutritifs est élevée,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sauropus_androgynus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauropus_androgynus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Indonésie, les feuilles utilisées en infusion sont censées améliorer la montée de lait des mères allaitantes.
-La consommation de Sauropus androgynus a été associée aux maladies des bronchioles[16],[17].
-Une étude suggère qu'une consommation excessive de jus de feuilles (très populaire à Taïwan dans les années 1990 pour le contrôle du poids) peut entrainer des dommages aux poumons en raison de ses teneurs élevées en papavérine (alcaloïde)[18].
-Des études récentes indiquent que Sauropus androgynus favorise la régénération et la multiplication dans l'organogenèse et l'embryogenèse somatique[19].
-Activité antioxydante
-L'activité antioxydante totale de pousses de diverses plantes a été mesurée par le thiocyanate ferrique (FTC) et l'acide thiobarbiturique (TBA) avec une absorbance de 500 nm et 532 nm[20]. Les résultats classés par ordre décroissant d'activité antioxydante étaient respectivement : 
+La consommation de Sauropus androgynus a été associée aux maladies des bronchioles,.
+Une étude suggère qu'une consommation excessive de jus de feuilles (très populaire à Taïwan dans les années 1990 pour le contrôle du poids) peut entrainer des dommages aux poumons en raison de ses teneurs élevées en papavérine (alcaloïde).
+Des études récentes indiquent que Sauropus androgynus favorise la régénération et la multiplication dans l'organogenèse et l'embryogenèse somatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sauropus_androgynus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauropus_androgynus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Activité antioxydante</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité antioxydante totale de pousses de diverses plantes a été mesurée par le thiocyanate ferrique (FTC) et l'acide thiobarbiturique (TBA) avec une absorbance de 500 nm et 532 nm. Les résultats classés par ordre décroissant d'activité antioxydante étaient respectivement : 
 pour l'extrait aqueux - Manihot utilissima (frais)&gt; Diplazium esculentum (frais)&gt; Sauropus androgynus (frais)&gt; M.utilissima (bouilli)&gt; D.esculentum (bouilli)&gt; S.androgynus (bouilli)
 pour l'extrait organique à l'hexane - S.androgynus (frais)&gt; D.esculentum (frais) &gt; M.utilissima (frais)&gt; M.utilissima (bouilli)&gt; D.esculentum (bouilli)&gt; S.androgynus (bouilli)
 			rameau fertile de Sauropus androgynus
